--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314208.7948612259</v>
+        <v>-316189.7114416509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553591</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13593270.75993956</v>
+        <v>13601719.96485331</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>167.1341577947733</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>198.8025379289722</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>79.25611486829263</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>196.4756515461386</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>75.03574198903547</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>90.35535684952164</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>107.855579634056</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>94.09750908037795</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>357.8430889839394</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>195.5631369528546</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>83.23408347637928</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>29.47502458765874</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465654</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>131.0780187496728</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>75.10986570268176</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>104.0592749850565</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2215610548103</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>46.18719652447317</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>78.92073824385562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065124</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.768015317631781</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>37.71287359686919</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.9854065430453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2767,7 +2767,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151941</v>
+        <v>203.8435192151926</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533807</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700712</v>
+        <v>78.67531269948022</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965575</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437464</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.290311834821</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897897</v>
       </c>
       <c r="I31" t="n">
-        <v>11.20399376253316</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523607</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550466</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952714</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080344</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235382</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789486</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692701</v>
       </c>
       <c r="F37" t="n">
         <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1156.179761166176</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>787.2172442257645</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>787.2172442257645</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>787.2172442257645</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>376.2313394361569</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2441.309757176016</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2441.309757176016</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2441.309757176016</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>2088.541101905902</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1715.075343644822</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230298</v>
+        <v>1715.075343644822</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>329.7728273507099</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>179.6561879383742</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>179.6561879383742</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>179.6561879383742</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>179.6561879383742</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X4" t="n">
-        <v>529.6687301194257</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y4" t="n">
-        <v>529.6687301194257</v>
+        <v>329.7728273507099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.892406545185</v>
+        <v>1077.074462393507</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.892406545185</v>
+        <v>708.1119454530949</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.626707938434</v>
+        <v>708.1119454530949</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.626707938434</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>716.640803148827</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>298.6769950470139</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.892406545185</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="D7" t="n">
-        <v>377.5443364482876</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="E7" t="n">
-        <v>377.5443364482876</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>148.9909707904432</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883535</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>295.8809182883535</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.806495672433</v>
+        <v>780.8554976894907</v>
       </c>
       <c r="C8" t="n">
-        <v>1326.843978732021</v>
+        <v>411.892980749079</v>
       </c>
       <c r="D8" t="n">
-        <v>968.578280125271</v>
+        <v>411.892980749079</v>
       </c>
       <c r="E8" t="n">
-        <v>582.7900275270267</v>
+        <v>411.892980749079</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>404.9474799998755</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y8" t="n">
-        <v>1695.806495672433</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>698.3562320976883</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U10" t="n">
-        <v>698.3562320976883</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,16 +5124,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.1367719529212</v>
+        <v>696.5850465240052</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529212</v>
+        <v>527.6488635960983</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405855</v>
+        <v>377.5322241837625</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>229.6191306013694</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>229.6191306013694</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>986.0022165609657</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>696.5850465240052</v>
       </c>
       <c r="X13" t="n">
-        <v>944.5778159266911</v>
+        <v>696.5850465240052</v>
       </c>
       <c r="Y13" t="n">
-        <v>723.7852367831609</v>
+        <v>696.5850465240052</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5294,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011336</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.136771952925</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C16" t="n">
-        <v>542.136771952925</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1282.730788346944</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687014</v>
+        <v>1282.730788346944</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687014</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="W16" t="n">
-        <v>723.7852367831647</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="X16" t="n">
-        <v>723.7852367831647</v>
+        <v>1028.046300141057</v>
       </c>
       <c r="Y16" t="n">
-        <v>723.7852367831647</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,52 +5513,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.5547239186417</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186417</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186417</v>
+        <v>291.7839189057831</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362486</v>
+        <v>143.8708253233901</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383382</v>
+        <v>143.8708253233901</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383382</v>
+        <v>143.8708253233901</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383382</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V19" t="n">
-        <v>1195.412937929372</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W19" t="n">
-        <v>905.9957678924115</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X19" t="n">
-        <v>905.9957678924115</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y19" t="n">
-        <v>685.2031887488814</v>
+        <v>441.9005583181189</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1495.110194479487</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1271.324779268993</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>982.1961404825511</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>727.5116522766643</v>
+        <v>955.1031435655741</v>
       </c>
       <c r="W22" t="n">
-        <v>727.5116522766643</v>
+        <v>665.6859735286135</v>
       </c>
       <c r="X22" t="n">
-        <v>727.5116522766643</v>
+        <v>437.6964226305962</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.5116522766643</v>
+        <v>216.9038434870661</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6008,10 +6008,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>545.1765965867975</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>397.2635030044044</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6175,22 +6175,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>441.9005583181187</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X25" t="n">
-        <v>441.9005583181187</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.400147668578</v>
+        <v>726.8250614170372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>190.6805289025613</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>339.7502131046217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>953.647282861511</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253973</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918007</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136704</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471203</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262963</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6525,37 +6525,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>570.0299571250929</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315576</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.11521831152</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975553</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708603</v>
+        <v>439.5324299542199</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243236</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="D31" t="n">
-        <v>404.2300237933582</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="E31" t="n">
-        <v>312.0777954923356</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="F31" t="n">
-        <v>220.9487132757951</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>108.534256876986</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>108.534256876986</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661996</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.33673373748</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818895</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818895</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197297</v>
+        <v>565.4200295030887</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6713,34 +6713,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,10 +7163,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7175,49 +7175,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7321,22 +7321,22 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155897</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0962224193113</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>940.8195545546108</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1805.338370207965</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2338.87027487989</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2885.649091938672</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3693.990007997929</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4407.345095444874</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.171224833397</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535634</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>566.017668389301</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549811</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051441</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279363</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155634</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>159.0121003135246</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>52.49733361304808</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776751</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>159.0121003135192</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>127.6461250100646</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,19 +11303,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>308.4529749292116</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>35.41554971370482</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>150.5997896863554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>117.4882860733328</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.301437281780693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>102.726631843063</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.2169050799724</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>61.34209567542488</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>194.1527946659714</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>107.708174426062</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.5992468090495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338321</v>
+        <v>82.39383318338471</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.36825177059046</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896552</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801201</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437409</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389795</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>44.01199507318219</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604806</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.520561454526614e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1187958.843295746</v>
+        <v>1187958.843295747</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1183868.984768212</v>
+        <v>1198500.273918331</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058924</v>
       </c>
       <c r="E2" t="n">
         <v>254168.8888295108</v>
@@ -26326,10 +26326,10 @@
         <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="H2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
         <v>254168.8888295107</v>
@@ -26338,19 +26338,19 @@
         <v>254168.8888295108</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744253</v>
+        <v>264434.389274426</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925941</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284528</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086633</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755736</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649863</v>
+        <v>47468.16806649889</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362277</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362278</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
         <v>51722.33279362279</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,19 +26485,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26506,10 +26506,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-580479.159393888</v>
       </c>
       <c r="C6" t="n">
-        <v>9488.719820656494</v>
+        <v>9488.719820656654</v>
       </c>
       <c r="D6" t="n">
-        <v>9488.719820656494</v>
+        <v>9488.71982065677</v>
       </c>
       <c r="E6" t="n">
-        <v>-392282.0191484041</v>
+        <v>-392379.4782743764</v>
       </c>
       <c r="F6" t="n">
-        <v>132878.0173284919</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="G6" t="n">
-        <v>132878.0173284918</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="H6" t="n">
-        <v>132878.0173284916</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="I6" t="n">
-        <v>132878.017328492</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="J6" t="n">
-        <v>-43545.2018641022</v>
+        <v>-43642.66099007332</v>
       </c>
       <c r="K6" t="n">
-        <v>76175.40737485861</v>
+        <v>76156.91363692429</v>
       </c>
       <c r="L6" t="n">
-        <v>107058.2297913778</v>
+        <v>107058.2297913772</v>
       </c>
       <c r="M6" t="n">
-        <v>-17399.8786415931</v>
+        <v>-17399.8786415933</v>
       </c>
       <c r="N6" t="n">
-        <v>117401.1365922441</v>
+        <v>117401.1365922439</v>
       </c>
       <c r="O6" t="n">
-        <v>117401.1365922439</v>
+        <v>117401.136592244</v>
       </c>
       <c r="P6" t="n">
-        <v>-64771.05663232804</v>
+        <v>73238.53128939825</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108404</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750854</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.607093011036682e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>246.6500122260217</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>17.64578242868555</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>76.91477397350252</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>29.23400384289855</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>306.8946280832263</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>233.5674159148355</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.56546838887526</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>73.21229317867297</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>49.03295675777207</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.2210330679403</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>65.38138954183307</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>195.5600808704255</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285566</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="32">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>492.2066737115375</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.40751256795505</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004669</v>
+        <v>598.8335596281414</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315253</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>309.587538901459</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412232</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043156</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>438.070502060531</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>816.5059758174307</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
